--- a/data/raw/litter_respiration_situ_first.xlsx
+++ b/data/raw/litter_respiration_situ_first.xlsx
@@ -553,8 +553,8 @@
   <numFmts count="6">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0000_ "/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
@@ -582,6 +582,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
@@ -590,15 +598,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -611,8 +611,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -621,14 +629,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -657,34 +657,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -696,9 +673,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -711,22 +725,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -735,7 +735,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -747,43 +777,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -801,18 +801,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -825,13 +813,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -843,37 +897,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -885,37 +909,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -926,6 +932,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -940,21 +955,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -977,26 +977,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1018,6 +1015,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1032,10 +1038,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1044,19 +1050,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1065,10 +1071,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1077,104 +1083,104 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1191,6 +1197,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1515,8 +1524,8 @@
   <sheetPr/>
   <dimension ref="A1:J281"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E61"/>
+    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
+      <selection activeCell="G202" sqref="G202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14"/>
@@ -1938,7 +1947,7 @@
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="8">
         <v>1657.509</v>
       </c>
       <c r="H17" s="7">
@@ -1963,7 +1972,7 @@
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="8">
         <v>1686.723</v>
       </c>
       <c r="H18" s="7">
@@ -2026,7 +2035,7 @@
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G21" s="8">
         <v>1724.159</v>
       </c>
       <c r="H21" s="7">
@@ -2301,7 +2310,7 @@
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G32" s="7">
+      <c r="G32" s="8">
         <v>1168.284</v>
       </c>
       <c r="H32" s="7">
@@ -2326,7 +2335,7 @@
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G33" s="7">
+      <c r="G33" s="8">
         <v>1190.688</v>
       </c>
       <c r="H33" s="7">
@@ -2526,7 +2535,7 @@
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G41" s="7">
+      <c r="G41" s="8">
         <v>1621.907</v>
       </c>
       <c r="H41" s="7">
@@ -3880,7 +3889,7 @@
       <c r="I90" s="7">
         <v>0.739</v>
       </c>
-      <c r="J90" s="8"/>
+      <c r="J90" s="9"/>
     </row>
     <row r="91" spans="1:10">
       <c r="A91" s="2" t="s">
@@ -3910,7 +3919,7 @@
       <c r="I91" s="7">
         <v>0.794</v>
       </c>
-      <c r="J91" s="8"/>
+      <c r="J91" s="9"/>
     </row>
     <row r="92" spans="1:10">
       <c r="A92" s="2" t="s">
@@ -3940,7 +3949,7 @@
       <c r="I92" s="7">
         <v>0.834</v>
       </c>
-      <c r="J92" s="8"/>
+      <c r="J92" s="9"/>
     </row>
     <row r="93" spans="1:9">
       <c r="A93" s="2" t="s">
@@ -4202,7 +4211,7 @@
       <c r="I101" s="7">
         <v>0.768</v>
       </c>
-      <c r="J101" s="8"/>
+      <c r="J101" s="9"/>
     </row>
     <row r="102" spans="1:9">
       <c r="A102" s="2" t="s">
@@ -4580,7 +4589,7 @@
       <c r="I114" s="7">
         <v>0.737</v>
       </c>
-      <c r="J114" s="8"/>
+      <c r="J114" s="9"/>
     </row>
     <row r="115" spans="1:9">
       <c r="A115" s="2" t="s">
@@ -4639,7 +4648,7 @@
       <c r="I116" s="7">
         <v>0.797</v>
       </c>
-      <c r="J116" s="8"/>
+      <c r="J116" s="9"/>
     </row>
     <row r="117" spans="1:9">
       <c r="A117" s="2" t="s">
@@ -4660,7 +4669,7 @@
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G117" s="7">
+      <c r="G117" s="8">
         <v>1220.975</v>
       </c>
       <c r="H117" s="7">
@@ -4814,7 +4823,7 @@
       <c r="I122" s="7">
         <v>0.73</v>
       </c>
-      <c r="J122" s="8"/>
+      <c r="J122" s="9"/>
     </row>
     <row r="123" spans="1:9">
       <c r="A123" s="2" t="s">
@@ -5337,7 +5346,7 @@
       <c r="I140" s="7">
         <v>0.799</v>
       </c>
-      <c r="J140" s="8"/>
+      <c r="J140" s="9"/>
     </row>
     <row r="141" spans="1:10">
       <c r="A141" s="2" t="s">
@@ -5367,7 +5376,7 @@
       <c r="I141" s="7">
         <v>0.84</v>
       </c>
-      <c r="J141" s="8"/>
+      <c r="J141" s="9"/>
     </row>
     <row r="142" spans="1:9">
       <c r="A142" s="2" t="s">
@@ -7331,7 +7340,7 @@
       <c r="F209" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G209" s="7">
+      <c r="G209" s="8">
         <v>3299.562</v>
       </c>
       <c r="H209" s="7">
@@ -7563,7 +7572,7 @@
       <c r="F217" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G217" s="7">
+      <c r="G217" s="8">
         <v>2327.194</v>
       </c>
       <c r="H217" s="7">

--- a/data/raw/litter_respiration_situ_first.xlsx
+++ b/data/raw/litter_respiration_situ_first.xlsx
@@ -553,10 +553,10 @@
   <numFmts count="6">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.0000_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.0000_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -582,11 +582,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -597,8 +596,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -612,15 +634,23 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -642,14 +672,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
@@ -657,11 +679,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -690,37 +720,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -747,13 +747,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -765,7 +771,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -777,25 +783,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -807,31 +807,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -843,7 +825,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -861,19 +861,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -885,43 +921,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -938,8 +938,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -955,6 +955,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -978,7 +998,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1012,33 +1032,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -1050,137 +1050,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1193,16 +1193,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1524,8 +1527,8 @@
   <sheetPr/>
   <dimension ref="A1:J281"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
-      <selection activeCell="G202" sqref="G202"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="G61" sqref="G61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14"/>
@@ -2660,7 +2663,7 @@
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G46" s="7">
+      <c r="G46" s="8">
         <v>1149.409</v>
       </c>
       <c r="H46" s="7">
@@ -2685,7 +2688,7 @@
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G47" s="7">
+      <c r="G47" s="8">
         <v>2031.327</v>
       </c>
       <c r="H47" s="7">
@@ -2710,7 +2713,7 @@
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G48" s="7">
+      <c r="G48" s="8">
         <v>2387.823</v>
       </c>
       <c r="H48" s="7">
@@ -2735,7 +2738,7 @@
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G49" s="7">
+      <c r="G49" s="8">
         <v>2408.479</v>
       </c>
       <c r="H49" s="7">
@@ -2835,7 +2838,7 @@
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G53" s="7">
+      <c r="G53" s="9">
         <v>2213.632</v>
       </c>
       <c r="H53" s="7">
@@ -2935,7 +2938,7 @@
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G57" s="7">
+      <c r="G57" s="8">
         <v>1460.341</v>
       </c>
       <c r="H57" s="7">
@@ -2960,7 +2963,7 @@
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G58" s="7">
+      <c r="G58" s="8">
         <v>1323.391</v>
       </c>
       <c r="H58" s="7">
@@ -3035,7 +3038,7 @@
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G61" s="7">
+      <c r="G61" s="8">
         <v>1455.963</v>
       </c>
       <c r="H61" s="7">
@@ -3889,7 +3892,7 @@
       <c r="I90" s="7">
         <v>0.739</v>
       </c>
-      <c r="J90" s="9"/>
+      <c r="J90" s="10"/>
     </row>
     <row r="91" spans="1:10">
       <c r="A91" s="2" t="s">
@@ -3919,7 +3922,7 @@
       <c r="I91" s="7">
         <v>0.794</v>
       </c>
-      <c r="J91" s="9"/>
+      <c r="J91" s="10"/>
     </row>
     <row r="92" spans="1:10">
       <c r="A92" s="2" t="s">
@@ -3949,7 +3952,7 @@
       <c r="I92" s="7">
         <v>0.834</v>
       </c>
-      <c r="J92" s="9"/>
+      <c r="J92" s="10"/>
     </row>
     <row r="93" spans="1:9">
       <c r="A93" s="2" t="s">
@@ -4211,7 +4214,7 @@
       <c r="I101" s="7">
         <v>0.768</v>
       </c>
-      <c r="J101" s="9"/>
+      <c r="J101" s="10"/>
     </row>
     <row r="102" spans="1:9">
       <c r="A102" s="2" t="s">
@@ -4589,7 +4592,7 @@
       <c r="I114" s="7">
         <v>0.737</v>
       </c>
-      <c r="J114" s="9"/>
+      <c r="J114" s="10"/>
     </row>
     <row r="115" spans="1:9">
       <c r="A115" s="2" t="s">
@@ -4648,7 +4651,7 @@
       <c r="I116" s="7">
         <v>0.797</v>
       </c>
-      <c r="J116" s="9"/>
+      <c r="J116" s="10"/>
     </row>
     <row r="117" spans="1:9">
       <c r="A117" s="2" t="s">
@@ -4823,7 +4826,7 @@
       <c r="I122" s="7">
         <v>0.73</v>
       </c>
-      <c r="J122" s="9"/>
+      <c r="J122" s="10"/>
     </row>
     <row r="123" spans="1:9">
       <c r="A123" s="2" t="s">
@@ -5346,7 +5349,7 @@
       <c r="I140" s="7">
         <v>0.799</v>
       </c>
-      <c r="J140" s="9"/>
+      <c r="J140" s="10"/>
     </row>
     <row r="141" spans="1:10">
       <c r="A141" s="2" t="s">
@@ -5376,7 +5379,7 @@
       <c r="I141" s="7">
         <v>0.84</v>
       </c>
-      <c r="J141" s="9"/>
+      <c r="J141" s="10"/>
     </row>
     <row r="142" spans="1:9">
       <c r="A142" s="2" t="s">
@@ -6354,7 +6357,7 @@
       <c r="F175" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G175" s="7">
+      <c r="G175" s="8">
         <v>2383.504</v>
       </c>
       <c r="H175" s="7">
@@ -6383,7 +6386,7 @@
       <c r="F176" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G176" s="7">
+      <c r="G176" s="8">
         <v>3305.17</v>
       </c>
       <c r="H176" s="7">
@@ -6412,7 +6415,7 @@
       <c r="F177" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G177" s="7">
+      <c r="G177" s="8">
         <v>4332.595</v>
       </c>
       <c r="H177" s="7">
